--- a/数据整理/stocks/A股/深证主板/002408-齐翔腾达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002408-齐翔腾达.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>47.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>86.69</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.50</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7192</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>88.90</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.43</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>88.90</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.43</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005633</t>
+          <t>004205</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信中证500指数增强C</t>
+          <t>东方支柱产业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.69</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004205</t>
+          <t>005633</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东方支柱产业灵活配置混合</t>
+          <t>建信中证500指数增强C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.28</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +758,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.98</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007013</t>
+          <t>008128</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>湘财长顺混合C</t>
+          <t>湘财长源股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -734,25 +824,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008128</t>
+          <t>008129</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>湘财长源股票A</t>
+          <t>湘财长源股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.68</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.58</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008129</t>
+          <t>007013</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>湘财长源股票C</t>
+          <t>湘财长顺混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002408-齐翔腾达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002408-齐翔腾达.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002408-齐翔腾达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002408-齐翔腾达.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1296,4 +1297,972 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8869</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5561</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3956</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2350</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>49.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>49.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002408-齐翔腾达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002408-齐翔腾达.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2265,4 +2266,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002408-齐翔腾达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002408-齐翔腾达.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2274,7 +2275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2285,17 +2286,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2305,14 +2326,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.92</v>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2321,14 +2364,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.62</v>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2337,14 +2402,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.19</v>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2353,13 +2440,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002408-齐翔腾达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002408-齐翔腾达.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2521,7 +2522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2532,17 +2533,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2552,14 +2573,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.53</v>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4493</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2568,14 +2611,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.92</v>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2257</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2584,14 +2649,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.62</v>
       </c>
     </row>
     <row r="5">
@@ -2600,14 +2687,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.19</v>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2616,13 +2725,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002408-齐翔腾达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002408-齐翔腾达.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2768,7 +2769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2779,17 +2780,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2799,14 +2820,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.92</v>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3990</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2815,14 +2858,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.53</v>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3356</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2831,14 +2896,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.92</v>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>48.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2847,14 +2934,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.62</v>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2863,14 +2972,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.19</v>
+          <t>011470</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东吴新产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2879,13 +3010,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>48.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002408-齐翔腾达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002408-齐翔腾达.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.24</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.92</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.53</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>2.92</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>0.62</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.19</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>88.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3990</t>
+          <t>0.3133</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>88.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3356</t>
+          <t>0.2497</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004142</t>
+          <t>004143</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合A</t>
+          <t>招商盛合灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>48.76</t>
+          <t>50.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1374</t>
+          <t>0.0994</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>580008</t>
+          <t>002581</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东吴新产业精选股票A</t>
+          <t>招商丰凯灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>48.56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1264</t>
+          <t>0.0591</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -808,32 +825,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011470</t>
+          <t>004142</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东吴新产业精选混合C</t>
+          <t>招商盛合灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>50.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1264</t>
+          <t>0.0168</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004143</t>
+          <t>002582</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合C</t>
+          <t>招商丰凯灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>48.76</t>
+          <t>48.56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1109</t>
+          <t>0.0161</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -950,26 +967,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.42</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>46.69</t>
+          <t>89.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4493</t>
+          <t>0.3990</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -978,36 +995,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>580008</t>
+          <t>004933</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东吴新产业精选股票A</t>
+          <t>招商丰拓灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>89.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.73</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2257</t>
+          <t>0.3356</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1016,36 +1033,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004933</t>
+          <t>004142</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合C</t>
+          <t>招商盛合灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.85</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>46.69</t>
+          <t>48.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1996</t>
+          <t>0.1374</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1054,32 +1071,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010740</t>
+          <t>580008</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇安核心价值混合A</t>
+          <t>东吴新产业精选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>92.16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0322</t>
+          <t>0.1264</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1092,36 +1109,74 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010741</t>
+          <t>011470</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇安核心价值混合C</t>
+          <t>东吴新产业精选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>92.16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0122</t>
+          <t>0.1264</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>48.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1186,36 +1241,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>580008</t>
+          <t>004932</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东吴新产业精选股票A</t>
+          <t>招商丰拓灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>24.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>46.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.59</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2455</t>
+          <t>0.4493</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1224,32 +1279,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>560500</t>
+          <t>580008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+          <t>东吴新产业精选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.51</t>
+          <t>89.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>9.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1094</t>
+          <t>0.2257</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1262,36 +1317,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007594</t>
+          <t>004933</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数C</t>
+          <t>招商丰拓灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>10.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>46.69</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0798</t>
+          <t>0.1996</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1300,36 +1355,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007593</t>
+          <t>010740</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数A</t>
+          <t>汇安核心价值混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0739</t>
+          <t>0.0322</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1338,36 +1393,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161715</t>
+          <t>010741</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商中证大宗商品股票指数（LOF）</t>
+          <t>汇安核心价值混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.89</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0231</t>
+          <t>0.0122</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1376,6 +1431,252 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2343,7 +2644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2741,7 +3042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2949,7 +3250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002408-齐翔腾达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002408-齐翔腾达.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.75</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.24</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.92</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.53</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>2.92</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>0.62</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>0.19</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,280 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7192</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,36 +936,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004932</t>
+          <t>002581</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合A</t>
+          <t>招商丰凯灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.09</t>
+          <t>37.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3133</t>
+          <t>0.0329</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -711,188 +974,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004933</t>
+          <t>002582</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合C</t>
+          <t>招商丰凯灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.09</t>
+          <t>37.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2497</t>
+          <t>0.0188</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004143</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商盛合灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>50.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0994</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002581</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商丰凯灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>48.56</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0591</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004142</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商盛合灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>50.91</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002582</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商丰凯灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>48.56</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0161</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -967,26 +1078,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>88.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3990</t>
+          <t>0.3133</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1005,26 +1116,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>88.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3356</t>
+          <t>0.2497</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1033,36 +1144,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004142</t>
+          <t>004143</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合A</t>
+          <t>招商盛合灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>48.76</t>
+          <t>50.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1374</t>
+          <t>0.0994</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1071,36 +1182,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>580008</t>
+          <t>002581</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东吴新产业精选股票A</t>
+          <t>招商丰凯灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>48.56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1264</t>
+          <t>0.0591</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1109,32 +1220,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011470</t>
+          <t>004142</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东吴新产业精选混合C</t>
+          <t>招商盛合灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>50.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1264</t>
+          <t>0.0168</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1147,36 +1258,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004143</t>
+          <t>002582</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合C</t>
+          <t>招商丰凯灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>48.76</t>
+          <t>48.56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1109</t>
+          <t>0.0161</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1190,7 +1301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1251,26 +1362,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.42</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>46.69</t>
+          <t>89.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4493</t>
+          <t>0.3990</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1279,36 +1390,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>580008</t>
+          <t>004933</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东吴新产业精选股票A</t>
+          <t>招商丰拓灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>89.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.73</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2257</t>
+          <t>0.3356</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1317,36 +1428,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004933</t>
+          <t>004142</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合C</t>
+          <t>招商盛合灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.85</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>46.69</t>
+          <t>48.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1996</t>
+          <t>0.1374</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1355,32 +1466,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010740</t>
+          <t>580008</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇安核心价值混合A</t>
+          <t>东吴新产业精选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>92.16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0322</t>
+          <t>0.1264</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1393,36 +1504,74 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010741</t>
+          <t>011470</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇安核心价值混合C</t>
+          <t>东吴新产业精选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>92.16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0122</t>
+          <t>0.1264</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>48.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1487,36 +1636,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>580008</t>
+          <t>004932</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东吴新产业精选股票A</t>
+          <t>招商丰拓灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>24.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>46.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.59</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2455</t>
+          <t>0.4493</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1525,32 +1674,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>560500</t>
+          <t>580008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+          <t>东吴新产业精选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.51</t>
+          <t>89.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>9.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1094</t>
+          <t>0.2257</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1563,36 +1712,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007594</t>
+          <t>004933</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数C</t>
+          <t>招商丰拓灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>10.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>46.69</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0798</t>
+          <t>0.1996</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1601,36 +1750,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007593</t>
+          <t>010740</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数A</t>
+          <t>汇安核心价值混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0739</t>
+          <t>0.0322</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1639,36 +1788,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161715</t>
+          <t>010741</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商中证大宗商品股票指数（LOF）</t>
+          <t>汇安核心价值混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.89</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0231</t>
+          <t>0.0122</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1677,6 +1826,252 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2644,7 +3039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3042,7 +3437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3248,250 +3643,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000478</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>47.95</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7192</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001120</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0755</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001121</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0679</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004205</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方支柱产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005633</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0152</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>